--- a/RPA/4. Dashboard Rekap Problem/Dashboard Rekap Problem.xlsx
+++ b/RPA/4. Dashboard Rekap Problem/Dashboard Rekap Problem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deky Hairudin\Downloads\UiPath\Data Pendukung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deky Hairudin\Downloads\Github\Deky\RPA\4. Dashboard Rekap Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907B7E14-24A9-4F86-9378-FDE8C7D84ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D1F818-5A2C-4859-9241-1FFE882FDAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{635F651E-0B3F-4D0F-90BD-56D7A6BB64D0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{635F651E-0B3F-4D0F-90BD-56D7A6BB64D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Dashboard</t>
   </si>
@@ -111,18 +111,6 @@
   </si>
   <si>
     <t>Production Output FG</t>
-  </si>
-  <si>
-    <t>27 Feb 2023 07.23</t>
-  </si>
-  <si>
-    <t>27 Feb 2023 08.30</t>
-  </si>
-  <si>
-    <t>27 Feb 2023 07.24</t>
-  </si>
-  <si>
-    <t>27 Feb 2023 07.22</t>
   </si>
 </sst>
 </file>
@@ -545,10 +533,10 @@
       </c>
       <c r="B2" s="4">
         <f ca="1">NOW()</f>
-        <v>44984.401716782406</v>
+        <v>45028.629678935184</v>
       </c>
       <c r="C2" s="4">
-        <v>44984.290972222225</v>
+        <v>45028.290972222225</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -557,10 +545,7 @@
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B17" ca="1" si="0">NOW()</f>
-        <v>44984.401716782406</v>
-      </c>
-      <c r="C3" s="4">
-        <v>44983.354166666664</v>
+        <v>45028.629678935184</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -569,10 +554,10 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44984.401716782406</v>
+        <v>45028.629678935184</v>
       </c>
       <c r="C4" s="4">
-        <v>44984.294444444444</v>
+        <v>45028.292361111111</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -581,10 +566,10 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44984.401716782406</v>
+        <v>45028.629678935184</v>
       </c>
       <c r="C5" s="4">
-        <v>44984.29791666667</v>
+        <v>45028.29583333333</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -593,10 +578,7 @@
       </c>
       <c r="B6" s="4">
         <f ca="1">NOW()</f>
-        <v>44984.401716782406</v>
-      </c>
-      <c r="C6" s="4">
-        <v>44984.297222222223</v>
+        <v>45028.629678935184</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -605,10 +587,10 @@
       </c>
       <c r="B7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44984.401716782406</v>
+        <v>45028.629678935184</v>
       </c>
       <c r="C7" s="4">
-        <v>44984.336111111108</v>
+        <v>45028.334722222222</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -617,10 +599,10 @@
       </c>
       <c r="B8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44984.401716782406</v>
+        <v>45028.629678935184</v>
       </c>
       <c r="C8" s="4">
-        <v>44984.397222222222</v>
+        <v>45028.626388888886</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -629,10 +611,7 @@
       </c>
       <c r="B9" s="4">
         <f ca="1">NOW()</f>
-        <v>44984.401716782406</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44978.250694444447</v>
+        <v>45028.629678935184</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -641,10 +620,10 @@
       </c>
       <c r="B10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44984.401716782406</v>
+        <v>45028.629678935184</v>
       </c>
       <c r="C10" s="4">
-        <v>44981.359722222223</v>
+        <v>45022.359722222223</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -653,10 +632,10 @@
       </c>
       <c r="B11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44984.401716782406</v>
+        <v>45028.629678935184</v>
       </c>
       <c r="C11" s="4">
-        <v>44984.216666666667</v>
+        <v>45028.55</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -665,10 +644,10 @@
       </c>
       <c r="B12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44984.401716782406</v>
+        <v>45028.629678935184</v>
       </c>
       <c r="C12" s="4">
-        <v>44984.375</v>
+        <v>45028.625</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -677,10 +656,10 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44984.401716782406</v>
+        <v>45028.629678935184</v>
       </c>
       <c r="C13" s="4">
-        <v>44984.240277777775</v>
+        <v>45028.239583333336</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -689,10 +668,7 @@
       </c>
       <c r="B14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44984.401716782406</v>
-      </c>
-      <c r="C14" s="4">
-        <v>44984.29791666667</v>
+        <v>45028.629678935184</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -701,10 +677,7 @@
       </c>
       <c r="B15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44984.401716782406</v>
-      </c>
-      <c r="C15" s="4">
-        <v>44984.29791666667</v>
+        <v>45028.629678935184</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -713,10 +686,7 @@
       </c>
       <c r="B16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44984.401716782406</v>
-      </c>
-      <c r="C16" s="4">
-        <v>44984.28402777778</v>
+        <v>45028.629678935184</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -725,10 +695,7 @@
       </c>
       <c r="B17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44984.401716782406</v>
-      </c>
-      <c r="C17" s="4">
-        <v>44984.376388888886</v>
+        <v>45028.629678935184</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -737,10 +704,7 @@
       </c>
       <c r="B18" s="4">
         <f t="shared" ref="B18:B23" ca="1" si="1">NOW()</f>
-        <v>44984.401716782406</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
+        <v>45028.629678935184</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -749,10 +713,7 @@
       </c>
       <c r="B19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44984.401716782406</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
+        <v>45028.629678935184</v>
       </c>
       <c r="F19" s="4"/>
     </row>
@@ -762,10 +723,7 @@
       </c>
       <c r="B20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44984.401716782406</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
+        <v>45028.629678935184</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="6"/>
@@ -777,10 +735,7 @@
       </c>
       <c r="B21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44984.401716782406</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
+        <v>45028.629678935184</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -789,10 +744,7 @@
       </c>
       <c r="B22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44984.401716782406</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
+        <v>45028.629678935184</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -801,10 +753,7 @@
       </c>
       <c r="B23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44984.401716782406</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
+        <v>45028.629678935184</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>

--- a/RPA/4. Dashboard Rekap Problem/Dashboard Rekap Problem.xlsx
+++ b/RPA/4. Dashboard Rekap Problem/Dashboard Rekap Problem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deky Hairudin\Downloads\Github\Deky\RPA\4. Dashboard Rekap Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D1F818-5A2C-4859-9241-1FFE882FDAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F9E9F8-0126-4579-8BEE-59967B7D926F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{635F651E-0B3F-4D0F-90BD-56D7A6BB64D0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{635F651E-0B3F-4D0F-90BD-56D7A6BB64D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Dashboard</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Bulk Loss</t>
   </si>
   <si>
-    <t>Conformance</t>
-  </si>
-  <si>
     <t>Daily Management System</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Production Netto</t>
   </si>
   <si>
-    <t>Raw Data MSTN</t>
-  </si>
-  <si>
     <t>Raw Data SMB</t>
   </si>
   <si>
@@ -101,28 +95,47 @@
     <t>OSPO Indirect Material</t>
   </si>
   <si>
-    <t>MPQ</t>
-  </si>
-  <si>
-    <t>Packaging Loss</t>
-  </si>
-  <si>
-    <t>Production Output Bulk</t>
-  </si>
-  <si>
-    <t>Production Output FG</t>
+    <t>Bulk Loss Tableau</t>
+  </si>
+  <si>
+    <t>Conformance Tableau</t>
+  </si>
+  <si>
+    <t>MPQ Tableau</t>
+  </si>
+  <si>
+    <t>Packaging Loss Tableau</t>
+  </si>
+  <si>
+    <t>Production Output Bulk Tableau</t>
+  </si>
+  <si>
+    <t>Production Output FG Tableau</t>
+  </si>
+  <si>
+    <t>29 Mei 2023 07.25</t>
+  </si>
+  <si>
+    <t>28 Mei 2023 08.30</t>
+  </si>
+  <si>
+    <t>29 Mei 2023 07.26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="166" formatCode="dd\ mmm\ yyyy\ hh\.mm"/>
+    <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="168" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="169" formatCode="mm"/>
+    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +148,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,10 +196,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -187,8 +215,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9E6FFA-241A-40E7-A7C8-52970FBE11A2}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,216 +557,319 @@
     <col min="3" max="3" width="18.44140625" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="E1">
+        <f ca="1">_xlfn.ISOWEEKNUM(NOW())-1</f>
+        <v>22</v>
+      </c>
+      <c r="F1">
+        <f ca="1">_xlfn.ISOWEEKNUM(NOW())</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <f ca="1">NOW()</f>
-        <v>45028.629678935184</v>
+        <v>45083.248579861109</v>
       </c>
       <c r="C2" s="4">
-        <v>45028.290972222225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45075.292361111111</v>
+      </c>
+      <c r="E2" s="8">
+        <f ca="1">NOW()+2</f>
+        <v>45085.248579861109</v>
+      </c>
+      <c r="F2" s="8">
+        <f ca="1">NOW()+7</f>
+        <v>45090.248579861109</v>
+      </c>
+      <c r="G2" s="11">
+        <f ca="1">NOW()</f>
+        <v>45083.248579861109</v>
+      </c>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:B17" ca="1" si="0">NOW()</f>
-        <v>45028.629678935184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="B3:B15" ca="1" si="0">NOW()</f>
+        <v>45083.248579861109</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45075.293749999997</v>
+      </c>
+      <c r="E3" s="9">
+        <f ca="1">NOW()-60</f>
+        <v>45023.248579861109</v>
+      </c>
+      <c r="F3" s="10" t="str">
+        <f ca="1">TEXT(E3,"mm")</f>
+        <v>04</v>
+      </c>
+      <c r="G3" t="str">
+        <f ca="1">CONCATENATE(F3,"/","01","/","2023"," 00:00:00")</f>
+        <v>04/01/2023 00:00:00</v>
+      </c>
+      <c r="I3" s="13" t="str">
+        <f ca="1">CONCATENATE("2023","-",F4,"-","01")</f>
+        <v>2023-05-01</v>
+      </c>
+      <c r="J3" t="str">
+        <f ca="1">CONCATENATE("https://redash.pti-cosmetics.com/dashboard/laporan-terima?p_field=%5B%22internal_name%22,%22date_done%22,%22batch%22,%22qty_done%22,%22price_unit%22,%22nogr%22,%22uom%22,%22valuta%22%5D&amp;p_date%20range.start=",I3,"&amp;p_date%20range.end=",I4,"&amp;p_category=DIRECT&amp;p_warehouse=%5B%22ALL%22%5D&amp;p_picking_type=%5B%22ALL%22%5D&amp;p_source=%5B%22ALL%22%5D")</f>
+        <v>https://redash.pti-cosmetics.com/dashboard/laporan-terima?p_field=%5B%22internal_name%22,%22date_done%22,%22batch%22,%22qty_done%22,%22price_unit%22,%22nogr%22,%22uom%22,%22valuta%22%5D&amp;p_date%20range.start=2023-05-01&amp;p_date%20range.end=2023-06-06&amp;p_category=DIRECT&amp;p_warehouse=%5B%22ALL%22%5D&amp;p_picking_type=%5B%22ALL%22%5D&amp;p_source=%5B%22ALL%22%5D</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45028.629678935184</v>
+        <v>45083.248579861109</v>
       </c>
       <c r="C4" s="4">
-        <v>45028.292361111111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45075.294444444444</v>
+      </c>
+      <c r="E4" s="4">
+        <f ca="1">NOW()-30</f>
+        <v>45053.248579861109</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f ca="1">TEXT(E4,"mm")</f>
+        <v>05</v>
+      </c>
+      <c r="G4" t="str">
+        <f ca="1">CONCATENATE(F4,"/","01","/","2023"," 00:00:00")</f>
+        <v>05/01/2023 00:00:00</v>
+      </c>
+      <c r="I4" s="13" t="str">
+        <f ca="1">CONCATENATE("2023","-",F5,"-",F6)</f>
+        <v>2023-06-06</v>
+      </c>
+      <c r="J4" t="str">
+        <f ca="1">CONCATENATE("https://redash.pti-cosmetics.com/dashboard/raw-data-smb?p_Group=%5B%22smb_bulk%22,%22smb_bebas_bulk%22,%22smb_kemas%22,%22smb_bebas_kemas%22%5D&amp;p_w255_Tgl%20Range.start=",I3,"&amp;p_w255_Tgl%20Range.end=",I4)</f>
+        <v>https://redash.pti-cosmetics.com/dashboard/raw-data-smb?p_Group=%5B%22smb_bulk%22,%22smb_bebas_bulk%22,%22smb_kemas%22,%22smb_bebas_kemas%22%5D&amp;p_w255_Tgl%20Range.start=2023-05-01&amp;p_w255_Tgl%20Range.end=2023-06-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45028.629678935184</v>
+        <v>45083.248579861109</v>
       </c>
       <c r="C5" s="4">
-        <v>45028.29583333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45075.29791666667</v>
+      </c>
+      <c r="F5" s="14" t="str">
+        <f ca="1">TEXT(G2,"mm")</f>
+        <v>06</v>
+      </c>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <f ca="1">NOW()</f>
-        <v>45028.629678935184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45083.248579861109</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45075.29791666667</v>
+      </c>
+      <c r="F6" s="14" t="str">
+        <f ca="1">TEXT(G2,"dd")</f>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45028.629678935184</v>
+        <v>45083.248579861109</v>
       </c>
       <c r="C7" s="4">
-        <v>45028.334722222222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45074.334027777775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45028.629678935184</v>
+        <v>45083.248579861109</v>
       </c>
       <c r="C8" s="4">
-        <v>45028.626388888886</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45075.31527777778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4">
         <f ca="1">NOW()</f>
-        <v>45028.629678935184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45083.248579861109</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45075.252083333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45028.629678935184</v>
+        <v>45083.248579861109</v>
       </c>
       <c r="C10" s="4">
-        <v>45022.359722222223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45071.359027777777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45028.629678935184</v>
+        <v>45083.248579861109</v>
       </c>
       <c r="C11" s="4">
-        <v>45028.55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45075.21875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45028.629678935184</v>
+        <v>45083.248579861109</v>
       </c>
       <c r="C12" s="4">
-        <v>45028.625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45075.293749999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45028.629678935184</v>
+        <v>45083.248579861109</v>
       </c>
       <c r="C13" s="4">
-        <v>45028.239583333336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45075.239583333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45028.629678935184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45083.248579861109</v>
+      </c>
+      <c r="C14" s="4">
+        <v>45075.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45028.629678935184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45083.248579861109</v>
+      </c>
+      <c r="C15" s="4">
+        <v>45075.29791666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>45028.629678935184</v>
+        <f ca="1">NOW()</f>
+        <v>45083.248579861109</v>
+      </c>
+      <c r="C16" s="4">
+        <v>45075.257638888892</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>45028.629678935184</v>
+        <f t="shared" ref="B17:B22" ca="1" si="1">NOW()</f>
+        <v>45083.248579861109</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4">
-        <f t="shared" ref="B18:B23" ca="1" si="1">NOW()</f>
-        <v>45028.629678935184</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45083.248579861109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
+      <c r="A19" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45028.629678935184</v>
+        <v>45083.248579861109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
+      <c r="A20" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45028.629678935184</v>
+        <v>45083.248579861109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="6"/>
@@ -731,29 +877,26 @@
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45028.629678935184</v>
+        <v>45083.248579861109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45028.629678935184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>45028.629678935184</v>
+        <v>45083.248579861109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
